--- a/biology/Médecine/Peste_septicémique/Peste_septicémique.xlsx
+++ b/biology/Médecine/Peste_septicémique/Peste_septicémique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peste_septic%C3%A9mique</t>
+          <t>Peste_septicémique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La peste septicémique est la plupart du temps une complication de la peste bubonique, due à une multiplication très importante des bacilles dans la circulation sanguine. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peste_septic%C3%A9mique</t>
+          <t>Peste_septicémique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété de peste apparaît quand les défenses des ganglions lymphatiques et les autres types de défense sont dépassés. Les lésions qui apparaissent dans certains organes sont les suivantes :
 myocardite (inflammation du myocarde constituant le muscle cardiaque lui-même) et que l'on nomme interstitielle diffuse, elle s'accompagne d'une dilatation (augmentation de volume) du cœur ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peste_septic%C3%A9mique</t>
+          <t>Peste_septicémique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours des épidémies, la peste septicémique se manifeste par un début brutal : syndrome infectieux très sévère (fièvre à 41 °C), des manifestations digestives, neurologiques et cardiovasculaires. Le foie et la rate sont augmentés de volume (hépatomégalie et splénomégalie).
 Ce syndrome évolue vers une hypotension (chute de la tension artérielle) réfractaire (que l'on arrive difficilement à récupérer), des troubles hémorragiques et une gangrène (destruction des tissus) des extrémités. La méningite est une manifestation inhabituelle de la peste.
-Lorsque la maladie atteint ce stade, le pronostic demeure extrêmement réservé, même avec les moyens thérapeutiques actuels de réanimation des pays développés. Sans traitement, la peste septicémique est presque toujours mortelle[1].
+Lorsque la maladie atteint ce stade, le pronostic demeure extrêmement réservé, même avec les moyens thérapeutiques actuels de réanimation des pays développés. Sans traitement, la peste septicémique est presque toujours mortelle.
 </t>
         </is>
       </c>
